--- a/Provas antigas/PlaniliaQuestoes.xlsx
+++ b/Provas antigas/PlaniliaQuestoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estudos\Faculdade\codes\.vscode\Threads\Provas antigas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDC6369C-E6FD-4DFC-A852-3CD2959AC61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A800B87D-4BD7-4825-9C37-F49356CF3277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6EA752E0-E1F0-4D20-AE99-72217FC8726F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
@@ -68,10 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
-  <si>
-    <t>Numero</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="95">
   <si>
     <t>Texto</t>
   </si>
@@ -116,9 +113,6 @@
   </si>
   <si>
     <t>2022.2</t>
-  </si>
-  <si>
-    <t>Mecanismos de exclusão mútua podem ser implementados pelo sistema operacional usando as técnicas de desabilitação de interrupção e spin lock . Explique cada uma destas técnicas e indique as vantagens e desvantagens (2,5);</t>
   </si>
   <si>
     <t>A interrupção é considerada o elo entre hardware-software. Qual a importância de interrupções para o gerenciamento do sistema operacional? Explique no contexto de escalonamento e interrupções de relógio (timer) (2,5);</t>
@@ -387,12 +381,269 @@
     <t>- Mutex
 - Exclusão mútua</t>
   </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>A desabilitação de interrupções é uma forma realizar a exclusão mútua impedindo que o escalonador continue a execução de qualquer outro processo ou thread enquanto um deles estiver acessando a região crítica. Essa abordagem de exclusão mútua não funciona para sistemas multiprocessadores visto que a interrupção seria desabilitada em apenas um dos processadores. Dessa forma, os outros poderiam acessar a região crítica de livremente, ou seja, não ocorre exclusão mútua corretamente.</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Resolvida</t>
+  </si>
+  <si>
+    <t>Pendente</t>
+  </si>
+  <si>
+    <t>Aula</t>
+  </si>
+  <si>
+    <t>06_Concorrencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Quando um processo é interrompido, seja por um evento de E/S, uma interrupção de tempo ou outra razão, o sistema operacional precisa salvar o estado atual do processo para que ele possa ser retomado posteriormente. Esse salvamento inclui o program counter (PC), registros da CPU e outras informações de estado. 
+  Quando o escalonador decide que um processo deve ser executado, ele carrega o contexto previamente salvo desse processo. Isso permite que o processo continue sua execução do ponto exato em que foi interrompido, garantindo a continuidade da sua operação. 
+  Ainda, o escalonador usa o contexto do processo para tomar decisões sobre qual processo deve ser o próximo executado. Isso pode incluir as informações sobre prioridade, tempo de CPU e estado, presentes no contexto.</t>
+  </si>
+  <si>
+    <t>aula9-escalonamento
+03_Introducao_2</t>
+  </si>
+  <si>
+    <t>02_Introducao_1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O funcionamento do bootloader pode ser dividido em duas etapas principais. 
+	Na primeira etapa, após a inicialização do hardware e o POST (Power-On Self-Test), o BIOS busca o código do bootloader no MBR (Master Boot Record), carrega, geralmente, seus primeiros 512 bytes para a memória e transfere o controle para ele. Esta etapa configura o ambiente inicial necessário para a execução do bootloader.
+	Na segunda etapa, com o controle transferido para o bootloader, ele agora deve localizar e carregar o kernel do sistema operacional na memória. O bootloader configura o modo de operação adequado (por exemplo, protected mode), localiza o kernel no sistema de arquivos, carrega-o na memória e, finalmente, transfere o controle para o kernel, iniciando a execução do sistema operacional.
+Para a implementação do bootloader, alguns cuidados são essenciais. O bootloader deve ser </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pequeno o suficiente para caber nos 512 bytes do MBR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. É importante implementar verificações para</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lidar com falhas na inicialização</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ou problemas de leitura, garantindo uma gestão robusta de erros. O bootloader deve ser </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compatível com o sistema de arquivos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>disco onde o kernel está armazenado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Além disso, a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>segurança</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> é um aspecto crucial, sendo necessário </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>verificar a integridade do código</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para prevenir execuções maliciosas.</t>
+    </r>
+  </si>
+  <si>
+    <t>Mecanismos de exclusão mútua podem ser implementados pelo sistema operacional usando as técnicas de desabilitação de interrupção e spin lock. Explique cada uma destas técnicas e indique as vantagens e desvantagens (2,5);</t>
+  </si>
+  <si>
+    <r>
+      <t>Definição</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: é uma maneira de implementar exclusão mútua (mutex) por meio de checagens repetidas como um loop (spin) da variável lock que indica se a região crítica pode ou não ser acessada no momento pelo processo/thread que tenta. Quando uma thread quer acessar uma região protegida pelo mutex, tenta adquirir o lock e, enquanto não conseguir, continua checando. Ao conseguir adquirir o lock, acessa a região crítica e segue com a execução. Após concluir as operações na região crítica, libera o lock para que outras threads possam tentar adquirir. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vantagens</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Mesmo que ocasione na espera ocupada de processos/threads, pode ser eficiente em operações que fazem uso da região crítica por um curto período de tempo e pelo fato de não requererem mudança de contexto. Além disso, é uma implementação de exclusão mútua que funciona com sistemas multiprocessadores visto que todos os processadores podem checar o mesmo lock. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Desvantagens</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: As threads/processos esperando pelo lock ficam em espera ocupada, fato que desperdiça tempo e processamento da CPU principalmente em processos com muitas threads esperando pelo mesmo lock para prosseguir.</t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Há 4 condições necessárias mas não suficientes para a ocorrência de deadlocks:
+1. Exclusão mútua
+    Presença de recursos compartilhados em que apenas um processo/thread pode acessar simultaneamente.
+    Prevenção: Técnica de Spooling em que a requisição fica armazenada em disco e quando o recurso estiver disponível o acesso é concebido ao processo/thread que estava esperando.
+2. Posse e espera
+    A possibilidade de adquirir um recurso (posse) e esperar por outro caso ele esteja sendo usado por outro processo/thread
+    Prevenção: Reserva de todos os recursos necessários antes de travar ou não reservar nada, o que deve ser feito com cuidado.
+3. Não preemptividade
+    Dada a posse de um recurso compartilhado para um processo/thread, nenhum outro pode roubá-la, retirar essa posse à força do processo que a possui, só pode ser liberada pelo processo que tem a posse.
+    Prevenção: Permitir que um processo/thread “roube temporariamente”, pegue à força um recurso de outro, o que também deve ser feito com cuidado
+4. Espera circular
+    Há um ciclo fechado de processos e recursos, onde cada processo está esperando por um recurso que o próximo processo na sequência tem posse. Isso continua até que o último processo está esperando por um recurso que o primeiro processo tem a posse.
+    Prevenção: Ordenação numérica dos recursos para evitar uma dada ordem em que ocorre o deadlock, evitando que um processo/thread tente usar um recurso compartilhado ao mesmo tempo que outro.</t>
+  </si>
+  <si>
+    <t>aula10-deadlock</t>
+  </si>
+  <si>
+    <t>aula4-conceitos_adicionais</t>
+  </si>
+  <si>
+    <t>Interrupções de relógio são um tipo de interrupção de hardware que são feitas como uma forma de chamar atenção da CPU para o sinal de interrupção interpretado pelo tratador de interrupções com o objetivo de executar atividades de gerenciamento do sistema operacional. Uma delas é o escalonamento. Para cada processo/thread são definidos fatias de tempo (quantums). A cada interrupção de relógio é verificado se ele acabou. Se sim, o processo é suspenso e e o escalonador passa a executar outro.</t>
+  </si>
+  <si>
+    <t>As chamadas ao sistema são interfaces que permitem que programas solicitem serviços do kernel do sistema operacional. São geradas por meio de interrupções síncronas (traps) que desviam a execução do modo usuário para o modo kernel (núcleo). Ao terminar a execução gerada pelo código da interrupção interpretado pelo tratador de interrupções, o processo anteriormente interrompido volta a ser executado normalmente</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,6 +676,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -446,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -463,11 +729,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="2"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -483,17 +784,13 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF75BD92"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -575,15 +872,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{602F16FD-8788-4D16-9A52-DA61EB9C7F66}" name="Tabela1" displayName="Tabela1" ref="A1:F43" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
-  <autoFilter ref="A1:F43" xr:uid="{602F16FD-8788-4D16-9A52-DA61EB9C7F66}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F5E11782-C182-4AC0-993D-7F2D51A34A39}" name="Semestre" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{0694AE4C-A66C-4807-A297-755B318D59FD}" name="Numero" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{F820EDCE-94C3-4B88-8D3A-23534F0555CC}" name="Tópicos" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{64EDEF0F-2D09-44D8-8930-E71FEEEF7925}" name="Texto" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{BF61CC40-E408-429C-A95F-D6E3599B2BAF}" name="Resposta" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{97FBD520-9588-4712-A5E6-F9AD7236C2A4}" name="Complemento ao texto" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{602F16FD-8788-4D16-9A52-DA61EB9C7F66}" name="Tabela1" displayName="Tabela1" ref="A1:H43" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:H43" xr:uid="{602F16FD-8788-4D16-9A52-DA61EB9C7F66}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{F5E11782-C182-4AC0-993D-7F2D51A34A39}" name="Semestre" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{0694AE4C-A66C-4807-A297-755B318D59FD}" name="N" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{F820EDCE-94C3-4B88-8D3A-23534F0555CC}" name="Tópicos" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{64EDEF0F-2D09-44D8-8930-E71FEEEF7925}" name="Texto" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{BF61CC40-E408-429C-A95F-D6E3599B2BAF}" name="Resposta" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{97FBD520-9588-4712-A5E6-F9AD7236C2A4}" name="Complemento ao texto" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{80583910-433B-41C9-BE38-F2555A1BD7DB}" name="Status" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{A1BA32E6-2727-477E-8F2A-9F6CDF3ACE67}" name="Aula" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -906,638 +1205,870 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DE9F26-DDE6-4C49-B717-D430C96A519E}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="79.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="255.7109375" style="1" hidden="1"/>
-    <col min="8" max="16384" width="13.140625" style="1" hidden="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="67.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="13.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="F16" s="1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1">
         <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>4</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1">
         <v>5</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1">
         <v>6</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1">
         <v>4</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1">
         <v>5</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>50</v>
+      <c r="C27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C28" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="F29" s="1" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G29" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" s="1">
         <v>3</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1">
         <v>4</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="215.25" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B32" s="1">
         <v>5</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B34" s="1">
         <v>2</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C34" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B35" s="1">
         <v>3</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B36" s="1">
         <v>4</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B37" s="1">
         <v>5</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B38" s="1">
         <v>6</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="345" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
       </c>
+      <c r="C39" s="4"/>
       <c r="D39" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B40" s="1">
         <v>2</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C40" s="4"/>
+      <c r="D40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C41" s="4"/>
+      <c r="D41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B42" s="1">
         <v>4</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="C42" s="4"/>
+      <c r="D42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="405" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B43" s="1">
         <v>5</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>74</v>
+      <c r="C43" s="4"/>
+      <c r="D43" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Resolvida">
+      <formula>NOT(ISERROR(SEARCH("Resolvida",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Provas antigas/PlaniliaQuestoes.xlsx
+++ b/Provas antigas/PlaniliaQuestoes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estudos\Faculdade\codes\.vscode\Threads\Provas antigas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A800B87D-4BD7-4825-9C37-F49356CF3277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BDED87-D627-4948-926D-64A351ECFD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6EA752E0-E1F0-4D20-AE99-72217FC8726F}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="113">
   <si>
     <t>Texto</t>
   </si>
@@ -638,12 +638,254 @@
   <si>
     <t>As chamadas ao sistema são interfaces que permitem que programas solicitem serviços do kernel do sistema operacional. São geradas por meio de interrupções síncronas (traps) que desviam a execução do modo usuário para o modo kernel (núcleo). Ao terminar a execução gerada pelo código da interrupção interpretado pelo tratador de interrupções, o processo anteriormente interrompido volta a ser executado normalmente</t>
   </si>
+  <si>
+    <t>2024.1</t>
+  </si>
+  <si>
+    <t>O que é o contexto do processo? Por que a troca de contexto é uma ação importante no desempenho de escalonamento de processos? (2,0)</t>
+  </si>
+  <si>
+    <t>Quais as vantagens e desvantagens de um sistema operacional estruturado de forma monolítica ou micronúcleo? (2,0)</t>
+  </si>
+  <si>
+    <t>Implemente uma API de jogos digitais usando pthreads. A biblioteca é composta por 4 threads: imagem, som, controle e comunicação . Assuma   que cada thread é implementada em um laço infinito. Após uma iteração (repetição), cada thread deverá ficar parada esperando que as outras threads também terminem uma iteração.  Após todas as threads concluírem uma repetição,  elas continuam a respectiva execução e a espera deve ocorrer novamente ao fim da iteração. Considere um código qualquer dentro do laço de cada thread. Além da implementação, explique brevemente se exclusão mútua é uma técnica apropriada para esse problema. (2,5)</t>
+  </si>
+  <si>
+    <t>int pthread_mutex_unlock(pthread_mutex_t *mutex); int pthread_mutex_lock(pthread_mutex_t *mutex); int pthread_cond_wait(pthread_cond_t *cond, pthread_mutex_t *mutex); int pthread_cond_signal(pthread_cond_t *cond);int pthread_cond_broadcast(pthread_cond_t *cond); int pthread_mutex_init(pthread_mutex_t *mutex, const pthread_mutexattr_t *attr);int pthread_mutex_destroy(pthread_mutex_t *mutex); int pthread_join(pthread_t thread, void **value_ptr); int pthread_barrier_wait(pthread_barrier_t *barrier); int pthread_barrier_init(pthread_barrier_t * barrier, const pthread_barrierattr_t * attr,  unsigned int count );</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Spin Lock
+ - Exclusão Mútua</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Escalonamento
+ - Contexto de processos</t>
+  </si>
+  <si>
+    <t>Como é possível garantir em um sistema com múltiplas threads ou processos a inexistência de deadlocks? Justifique usando as condições necessárias. (1,5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Deadlock</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Threads
+ - Código</t>
+  </si>
+  <si>
+    <t>Software-E/S</t>
+  </si>
+  <si>
+    <t>As funcionalidades da camada "software do SO independente do dispositivo" são:
+Nomear os dispositivos de E/S, proteger contra acessos indevidos garantindo o acesso e controle seguro, bloquear evitando condições de disputa e conflitos, uso de buffers para transferência e armazenamento temporario de dados e alocação e gerenciamento de recursos necessarios para o funcionamento dos dispositivos de E/S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistemas concorrentes implementado usando multiplos processos têm a vantagem pelo fato de os processos serem isolados e independentes. Isso significa que cada processo possui seus proprios recursos exclusivos (ESPAÇO DE ENDEREÇAMENTO) e, em caso de problema ou erro, um processo não afeta o outro se for necessário que um deles seja interrompido, o que pode garantir maior estabilidade para o sistema concorrente. Por outro lado, o fato de serem isolados e independentes entre si resulta em uma desvantagem: as trocas de contexto. No momento do escalonamento, quando um processo é interrompido e outro entra em execução, é necessário que ocorra a troca de contexto, a qual é computacionalmente custoso (atualizar e salvar dados nos registradores, atualizar PC para poder continuar a exceução posteriormente do ponto em que parou, entre outros). 
+Já a implementação com threads, por fazerem elas parte do mesmo processo, tem a desvantagem quando se trata de erros e problemas, visto que se uma thread apresenta erro e o processo precisa ser abortado, todas as threads são afetadas e também têm sua execução interrompida, o que pode causar instabilidade no sistema visto que um problema de uma thread pode afetar todas. Ainda, o fato de threads compartilharem o mesmo espaço de endereçamento do processo torna maior o risco de ocorrer deadlocks e condições de corrida, o que demanda maior cuidado. Por outro lado, o escalonamento entre threads demanda muito menos tempo e processamento da CPU, visto que, como fazem parte do mesmo processo, não ocorre a troca de contexto do processo em si. 
+Ademais, a implementação de um sistema concorrente com o uso de múltiplos processos possui intercomunicação (comunicação entre diferentes processos) mais custosa: demanda mais recursos e processamento da CPU do que quando se trata de uma implementação que conta com múltiplas threads. Portanto, essa é outra desvantagem do uso de múltiplos processos e outra vantagem quando se trata de threads. </t>
+  </si>
+  <si>
+    <t>Contextos de processos são como structs que contêm todos os dados necessários para a execução de um processo, incluindo prioridade, estado, PC (contador de programa), endereços de memória, entre outros. Durante o escalonamento, quando o algoritmo decide interromper a execução de um processo e continuar com outro, ele atualiza e salva o contexto atual do processo e carrega o contexto do próximo. Esse carregamento é chamado de troca de contexto e é considerado computacionalmente custoso em termos de tempo e processamento de CPU. A troca de contexto entre threads do mesmo processo é menos custosa, pois não envolve a troca de todo o contexto do processo. Portanto, o custo computacional da troca de contexto pode afetar o desempenho geral do sistema, principalmente se essa troca ocorre frequentemente.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Instruções </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">test-and-set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(de CPUs) podem ser utilizadas em sistemas operacionais para implementar exclusão mútua (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mutex, semáforos)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Como funciona? Essa abordagem funciona para sistemas multiprocessadores? Justifique (2,0)</t>
+    </r>
+  </si>
+  <si>
+    <t>Exclusão mútua (mutex) pode ser implementado de várias formas por um SO:
+Spin Lock:
+A implementação ocorre de forma de que uma thread/processo tenta adquirir o lock antes de entrar numa região crítica. Caso não consigam (lock travado, já está sendo usado), ficam rodando em loop (spin) esperando e tentando adquirir o lock. Quando conseguem obter o lock, travam, acessam a região crítica, executam e, ao fim, "devolvem" (destravam o lock). Uma desvantagem dessa implementação é a espera ocupada pelo fato de threads/processos ficarem continuamente testando e tentando adquirir o lock, mas isso pode não afetar muito a execução do sistema principalmente se as tarefas que envolvem as regiões críticas levam um curto período de tempo para serem executadas (tarefas curtas). Por outro lado, uma vantagem é que essa implementação funciona para sistemas multiprocessadores, visto que todos os processadores podem checar o mesmo "lock".
+Desabilitação de interrupções:
+A desabilitação de interrupções funciona impedindo que haja qualquer interrupção na execução de um processo/thread. Com elas desabilitadas, o escalonador não interrompe o processo em atual nem coloca outro em execução. Feito isso, condições de corrida são evitadas pois, com apenas um processo/thread em execução, não há como outro acessar o mesmo recurso compartilhado e resultar em problemas causados por esse acesso indevido. Dessa forma, quando o processo/thread termina sua tarefa na região crítica, volta a habilitar as interrupções para que outros processos/threads voltem a poder ser executados, o escalonamento volta a ocorrer. Uma desvantagem dessa implementação é que ela não funciona para sistemas multiprocessadores, apenas para sistemas com um único núcleo de processamento. Além disso, essa implementação pode afetar o funcionamento do sistema principalmente se uma thread/processo acessar uma região crítica por muito tempo, fazendo com que outras tarefas importantes para o uso do sistema não sejam executadas. Por outro lado, essa implementação é simples e garante a exclusão mútua.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Na estrutura </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>monolítica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, todo o sistema operacional roda no modo núcelo/kernel, funcionando por meio de vários procedimentos interligados.
+A vantagem dessa estrutura é que ela apresenta um bom desempenho e baixo overheading. Por outro lado, problemas em uma funcionalidade podem afetar todo o sistema operacional, devido ao fato de que todo ele roda no modo kernel que possui acesso irrestrito ao hardware.
+Na estrutura </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>micronúcleo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, apenas uma pequena parte do sistema operacional roda no modo núcleo e o restante funciona em modo usuário.
+A vantagem dessa estrutura é que em caso haja algum problema na parte que roda em modo usuário, basta matar e reiniciar o processo sem que isso afete o sistema operacional e seu funcionamento no geral. Por outro lado, a performance não é tão eficiente quanto na estrutura monolítica.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A interrupção de hardware é importante para a comunicação de E/S pois permite que que dispositivos periféricos notifiquem, chamem "atenção" da CPU quando alguma ação relacionada a esses dispositivos é necessária sem a necessidade de checar constantemente.
+Quando acontece uma interrupção de hardware, o</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tratador de interrupções</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> é acionado. Ele interpreta essa interrupção, identifica o periférico que gerou a interrupção e acorda o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>driver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do dispositivo para que ele possa processar os dados. Após isso, os dados são bufferizados (armazenados em buffers que gerenciam a transferêmcia de dados) na camada </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>software do SO de E/S independente do dispositivo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para só então chegar na camada </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>software de E/S no nível do usuário</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> em que os dados finalmente possam ser entregues da forma em que foram solicitados.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,6 +933,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -712,7 +969,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -741,6 +998,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -767,6 +1027,18 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -872,8 +1144,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{602F16FD-8788-4D16-9A52-DA61EB9C7F66}" name="Tabela1" displayName="Tabela1" ref="A1:H43" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:H43" xr:uid="{602F16FD-8788-4D16-9A52-DA61EB9C7F66}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{602F16FD-8788-4D16-9A52-DA61EB9C7F66}" name="Tabela1" displayName="Tabela1" ref="A1:H48" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:H48" xr:uid="{602F16FD-8788-4D16-9A52-DA61EB9C7F66}">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter val="*thread*"/>
+        <customFilter val="*threads*"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F5E11782-C182-4AC0-993D-7F2D51A34A39}" name="Semestre" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{0694AE4C-A66C-4807-A297-755B318D59FD}" name="N" dataDxfId="7"/>
@@ -1205,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DE9F26-DDE6-4C49-B717-D430C96A519E}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C38"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,9 +1496,9 @@
     <col min="2" max="2" width="3.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="42.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="67.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="40.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="86.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="13.140625" style="1"/>
   </cols>
@@ -1237,7 +1516,7 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1250,198 +1529,189 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>77</v>
+      <c r="C2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
+      <c r="C3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>90</v>
+        <v>28</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>83</v>
+      <c r="C5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="248.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>86</v>
+      <c r="C6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>79</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="360" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1">
         <v>5</v>
@@ -1449,8 +1719,8 @@
       <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>17</v>
+      <c r="D11" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>86</v>
@@ -1462,160 +1732,178 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
+      <c r="C12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
+      <c r="C13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="390" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>26</v>
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
         <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="1" t="e" vm="1">
-        <v>#VALUE!</v>
+        <v>12</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>75</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>94</v>
+      <c r="C18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1">
         <v>3</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>34</v>
+      <c r="C19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1">
         <v>4</v>
@@ -1623,8 +1911,8 @@
       <c r="C20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>8</v>
+      <c r="D20" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>86</v>
@@ -1636,197 +1924,194 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>5</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="1" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="315" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1">
         <v>6</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D27" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="G27" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="1">
-        <v>3</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="330" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="1">
-        <v>4</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="240" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="1">
-        <v>5</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>94</v>
+      <c r="C28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="1" t="e" vm="2">
-        <v>#VALUE!</v>
+        <v>50</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B30" s="1">
         <v>3</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B31" s="1">
         <v>4</v>
@@ -1834,7 +2119,7 @@
       <c r="C31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -1847,218 +2132,321 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B32" s="1">
         <v>5</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>59</v>
+      <c r="D32" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>61</v>
+      <c r="C33" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1">
         <v>2</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>94</v>
+      <c r="C34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="1" t="e" vm="2">
+        <v>#VALUE!</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B35" s="1">
         <v>3</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B36" s="1">
         <v>4</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>64</v>
+        <v>12</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B37" s="1">
         <v>5</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>86</v>
+        <v>40</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="1">
+        <v>3</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="1">
         <v>6</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D43" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="345" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="1">
-        <v>2</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="1">
-        <v>3</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="1">
-        <v>4</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="405" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="1">
-        <v>5</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="393.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="1">
+        <v>3</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="1">
+        <v>5</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>80</v>
       </c>
     </row>

--- a/Provas antigas/PlaniliaQuestoes.xlsx
+++ b/Provas antigas/PlaniliaQuestoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estudos\Faculdade\codes\.vscode\Threads\Provas antigas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BDED87-D627-4948-926D-64A351ECFD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4A8AE8-BA16-4D03-9BC3-D7BF0BFB210B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6EA752E0-E1F0-4D20-AE99-72217FC8726F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="2">
+  <futureMetadata name="XLRICHVALUE" count="3">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -55,20 +55,30 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="2">
+  <valueMetadata count="3">
     <bk>
       <rc t="1" v="0"/>
     </bk>
     <bk>
       <rc t="1" v="1"/>
     </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="124">
   <si>
     <t>Texto</t>
   </si>
@@ -550,63 +560,6 @@
   </si>
   <si>
     <t>Mecanismos de exclusão mútua podem ser implementados pelo sistema operacional usando as técnicas de desabilitação de interrupção e spin lock. Explique cada uma destas técnicas e indique as vantagens e desvantagens (2,5);</t>
-  </si>
-  <si>
-    <r>
-      <t>Definição</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: é uma maneira de implementar exclusão mútua (mutex) por meio de checagens repetidas como um loop (spin) da variável lock que indica se a região crítica pode ou não ser acessada no momento pelo processo/thread que tenta. Quando uma thread quer acessar uma região protegida pelo mutex, tenta adquirir o lock e, enquanto não conseguir, continua checando. Ao conseguir adquirir o lock, acessa a região crítica e segue com a execução. Após concluir as operações na região crítica, libera o lock para que outras threads possam tentar adquirir. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vantagens</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Mesmo que ocasione na espera ocupada de processos/threads, pode ser eficiente em operações que fazem uso da região crítica por um curto período de tempo e pelo fato de não requererem mudança de contexto. Além disso, é uma implementação de exclusão mútua que funciona com sistemas multiprocessadores visto que todos os processadores podem checar o mesmo lock. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Desvantagens</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: As threads/processos esperando pelo lock ficam em espera ocupada, fato que desperdiça tempo e processamento da CPU principalmente em processos com muitas threads esperando pelo mesmo lock para prosseguir.</t>
-    </r>
   </si>
   <si>
     <t>-</t>
@@ -633,13 +586,7 @@
     <t>aula4-conceitos_adicionais</t>
   </si>
   <si>
-    <t>Interrupções de relógio são um tipo de interrupção de hardware que são feitas como uma forma de chamar atenção da CPU para o sinal de interrupção interpretado pelo tratador de interrupções com o objetivo de executar atividades de gerenciamento do sistema operacional. Uma delas é o escalonamento. Para cada processo/thread são definidos fatias de tempo (quantums). A cada interrupção de relógio é verificado se ele acabou. Se sim, o processo é suspenso e e o escalonador passa a executar outro.</t>
-  </si>
-  <si>
     <t>As chamadas ao sistema são interfaces que permitem que programas solicitem serviços do kernel do sistema operacional. São geradas por meio de interrupções síncronas (traps) que desviam a execução do modo usuário para o modo kernel (núcleo). Ao terminar a execução gerada pelo código da interrupção interpretado pelo tratador de interrupções, o processo anteriormente interrompido volta a ser executado normalmente</t>
-  </si>
-  <si>
-    <t>2024.1</t>
   </si>
   <si>
     <t>O que é o contexto do processo? Por que a troca de contexto é uma ação importante no desempenho de escalonamento de processos? (2,0)</t>
@@ -880,12 +827,235 @@
       <t xml:space="preserve"> em que os dados finalmente possam ser entregues da forma em que foram solicitados.</t>
     </r>
   </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+#include &lt;stdlib.h&gt;
+#include &lt;pthread.h&gt;
+pthread_barrier_t barreiraJogo;
+void* imagem {
+    while(1) {
+        // codigo qualquer dentro do laco de cada thread
+        pthread_barrier_wait(&amp;barreiraJogo);
+    }
+    pthread_exit(NULL);
+}
+void* som {
+    while(1) {
+        // codigo qualquer dentro do laco de cada thread
+        pthread_barrier_wait(&amp;barreiraJogo);
+    }
+    pthread_exit(NULL);
+}
+void* controle {
+    while(1) {
+        // codigo qualquer dentro do laco de cada thread
+        pthread_barrier_wait(&amp;barreiraJogo);
+    }
+    pthread_exit(NULL);
+}
+void* comunicacao {
+    while(1) {
+        // codigo qualquer dentro do laco de cada thread
+        pthread_barrier_wait(&amp;barreiraJogo);
+    }
+    pthread_exit(NULL);
+}
+int main() {
+    pthread_barrier_init(&amp;barreiraJogo, NULL, 4);
+    // criacao das 4 threads aqui
+    // pthread_join nas 4 threads aqui
+    pthread_barrier_destroy(&amp;barreiraJogo);
+    pthread_exit(NULL);
+}
+/*
+Exclusão Mútua não é uma técnica apropriada para esse problema.
+Visto que exclusão mútua é uma pratica para evitar o uso conflitante de recursos 
+compartilhados e a questão trata de sincronia entre threads sem que haja região 
+crítica, fica claro que exclusão mútua não é uma técnica apropriada, mas sim, 
+barreiras.
+*/</t>
+  </si>
+  <si>
+    <t>#include &lt;pthread.h&gt;
+#include &lt;stdlib.h&gt;
+#include &lt;stdio.h&gt;
+pthread_mutex_t mutexTela = PTHREAD_MUTEX_INIT;
+void exibirTela(char *texto);
+void* rotinahThreads(void *arg) {
+    while(1) {
+        pthread_mutex_lock(&amp;mutexTela);
+        exibirTela((char *) arg);
+        pthread_mutex_unlock(&amp;mutexTela);
+    }
+    pthread_exit(NULL);
+}
+/*
+A condição existente no sistema é uma condição de corrida, onde há recusrsos
+compartilhados entre mais de uma thread, uma região crítica. Nesse caso, a 
+região crítica é a tela, região em que multiplas threads poderiam tentar
+acessa-la ao mesmo tempo e, com uso da exclusão mutua (mutex), esse acesso 
+ocorre de forma segura, uma thread por vez
+*/</t>
+  </si>
+  <si>
+    <t>#include &lt;pthread.h&gt;
+#include &lt;stdlib.h&gt;
+#include &lt;stdio.h&gt;
+// REGIAO CRITICA!!! "contador" eh o recurso compartilhado
+// que causa condicao de disputa entre as threads
+int contador = 0; 
+pthread_mutex_t mutexContador = PTHREAD_MUTEX_INIT;
+void* doacao(void *arg) {
+    pthread_mutex_lock(mutexContador);
+    contador++;
+    pthread_mutex_unlock(mutexContador);
+    // codigo da doacao
+    pthread_mutex_lock(mutexContador);
+    contador--;
+    pthread_mutex_unlock(mutexContador);
+    pthread_exit(NULL);
+}</t>
+  </si>
+  <si>
+    <t>#include &lt;pthread.h&gt;
+#include &lt;stdlib.h&gt;
+#include &lt;stdio.h&gt;
+// REGIAO CRITICA!!! "contador" eh o recurso compartilhado
+// que causa condicao de disputa entre as threads
+int contador = 0; 
+pthread_mutex_t mutexContador = PTHREAD_MUTEX_INIT;
+void* funcao(void *arg) {
+    pthread_mutex_lock(mutexContador);
+    contador++;
+    pthread_mutex_unlock(mutexContador);
+    // codigo da funcao
+    pthread_mutex_lock(mutexContador);
+    contador--;
+    pthread_mutex_unlock(mutexContador);
+    pthread_exit(NULL);
+}</t>
+  </si>
+  <si>
+    <t>2023.2</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+#include &lt;stdlib.h&gt;
+#include &lt;pthread.h&gt;
+pthread_barrier_t barreiraJogo;
+void* imagem(void* arg) {
+    while(1) {
+        // codigo qualquer dentro do laco de cada thread
+        pthread_barrier_wait(&amp;barreiraJogo);
+    }
+    pthread_exit(NULL);
+}
+void* som(void* arg) {
+    while(1) {
+        // codigo qualquer dentro do laco de cada thread
+        pthread_barrier_wait(&amp;barreiraJogo);
+    }
+    pthread_exit(NULL);
+}
+void* controle(void* arg) {
+    while(1) {
+        // codigo qualquer dentro do laco de cada thread
+        pthread_barrier_wait(&amp;barreiraJogo);
+    }
+    pthread_exit(NULL);
+}
+void* comunicacao(void* arg) {
+    while(1) {
+        // codigo qualquer dentro do laco de cada thread
+        pthread_barrier_wait(&amp;barreiraJogo);
+    }
+    pthread_exit(NULL);
+}
+int main() {
+    pthread_barrier_init(&amp;barreiraJogo, NULL, 4);
+    // criacao das 4 threads aqui
+    // pthread_join nas 4 threads aqui
+    pthread_barrier_destroy(&amp;barreiraJogo);
+    pthread_exit(NULL);
+}
+/*
+Exclusão Mútua não é uma técnica apropriada para esse problema.
+Visto que exclusão mútua é uma pratica para evitar o uso conflitante de recursos 
+compartilhados e a questão trata de sincronia entre threads sem que haja região 
+crítica, fica claro que exclusão mútua não é uma técnica apropriada, mas sim, 
+barreiras.
+*/</t>
+  </si>
+  <si>
+    <t>Intruções test-and-set de CPUs são utilizadas para implementar técnicas de exclusão mútua por meio quando se trata de spin lock. Primeiramente, exclusão mútua é uma técnica que evita conflitos e problemas quando existem recursos compartilhados num sistema. Para que haja exclusão mútua, 4 princípios devem ser seguidos: dois processos/threads podem acessar o mesmo recurso simultaneamente, a implementação de exclusão mútua não deve considerar a velocidade de processamento ou número de CPUs, nenhum processo/thread que não estiver fazendo o uso de recursos compartilhados pode impedir que outro processo/thread faça o uso deles e nenhum processo pode esperar eternamente para acessar a região crítica. 
+Na implementação de exclusão mútua por meio de spin lock fazendo o uso de intruções test-and-set, é usada uma ideia similar à de "flags" para indicar e verificar se a região crítica pode ou não ser acessada pela thread/processo que está tentando no momento (test). Se não, a thread testa continuamente, em loop (spin) até que consiga. A espera é ocupada mas pode ser interessante pois essa abordagem funciona em sistemas multiprocessadores, tem simples implementação e pode ser bem eficiente em casos em que as threads/processos acessam a região crítica para realizar tarefas curtas. Quando uma thread/processo verifica que pode acessar a região crítica, ela trava (set) o lock, realiza o acesso e, ao fim, destrava o lock para que outras threads/processos possam acessá-la. Com o uso das intruções test-and-set, pelo fato de serem intruções atômicas, fica garantido que o processo de test e set do lock ocorre sem conflitos entre diferentes threads/processos que tentem adquirir ou testar o lock simultaneamente.</t>
+  </si>
+  <si>
+    <t>Contextos de processos são como structs que armazenam todos os dados necessários para a um processo ser executado. Eles contém informações de estado, prioridade, ID, registradores (como o PC), entre outros. 
+A troca de contexto acontece no escalonamento quando o algoritmo decide interromper a execução de um processo e iniciar ou dar andamento à execução de outro. Nesse momento, o contexto do processo atualmente em execução é atualizado e carregado para a memória. Essa etapa é importante para que o processo possa, posteriormente, retomar sua execução de onde parou. Após isso, o contexto do processo que vai iniciar ou continuar sua execução é descarregado da memória para os registradores da CPU para que a execução possa ocorrer. 
+A troca de contexto é uma ação importante no que tange ao desenpenho do escalonamento visto que é uma operação custosa computacionalmente, tem um overheading relativamente alto devido ao processo de carregar e descarregar da memória. Por isso, é uma operação levada em conta pelos algoritmos de escalonamento para garantir que ele ocorra de forma mais eficiente e justa possível.</t>
+  </si>
+  <si>
+    <t>Interrupções de relógio são um tipo de interrupção de hardware que são feitas como uma forma de chamar atenção da CPU para o sinal de interrupção interpretado pelo tratador de interrupções com o objetivo de executar atividades de gerenciamento do sistema operacional. 
+Uma delas é o escalonamento. Para cada processo/thread são definidos fatias de tempo (quantums) pelo sistema. A cada interrupção de relógio é verificado se ele acabou. Se sim, o processo é suspenso e e o escalonador passa a executar outro.</t>
+  </si>
+  <si>
+    <t>Na estrutura monolítica, todo o sistema operacional roda em modo núcleo/kernel e funciona por meio de procedimentos/funções interligadas. Essa estrutura tem um bom desempenho e baixo overheading como vantagens. Por outro lado, sua desvantagem é que, se alguma funcionalidade do sistema operacional apresenta problemas, isso afeta o funcionamento geral do SO devido ao acesso direto e irrestrito ao hardware que ele possui.
+Na estrutura micronúcleo, apenas parte do sistema operacional roda em modo kernel e o restante roda em modo usuário. Isso faz com que haja a desvantagem de ter um desenpenho inferior em relação à estrutura monolítica e haja um maior overheading. Por outro lado, sua vantagem ocorre pelo fato de, em caso de problema em uma funcionalidade do sistema operacional da parte rodando em modo usuário, basta matar o processo, reiniciar  para que ele volte a funcionar sem que o restante do SO seja afetado.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deadlock são impassses que ocorrem quando dois ou mais processos/threads esperam por algum evento que nunca vai acontecer e ficam permanentemente bloqueados. Isso acontece quando cada processo/thread do grupo espera por um evento que apenas outro processo/thread do mesmo grupo pode fazer acontecer, causando uma espera circular que resulta nesse bloqueio permanente. 
+Existem 4 condições necessárias (mas não suficientes) para a existencia de deadlocks:
+- Exclusão mútua
+Recursos compartilhados que só podem ser acessados por uma thread/processo         simultaneamente. Técnica de spooling pode ser usada para prevenir: ela consiste em armazenar as requisições de acesso em disco e conceber o acesso quando disponível ao processo/thread que estava esperando.
+- Posse e espera
+A possibilidade de obter a posse de um recurso e ter que esperar por ele caso ele já esteja sendo acessado por outro processo/thread. Uma prevenção pode ser garantir que todos os recursos necessários estão disponíveis antes de travar ou não travar nada (all-or-nothing).
+- Não-preemptividade
+Dado o acesso à região crítica para um processo/thread, nenhum outro pode "roubar", retirar a força, só ele mesmo pode liberar a região para ser usada por outros processos/threads
+- Espera circular
+A espera circular ocorre quando há um ciclo fechado de processos/threads e os recursos utilizados, quando um processo/thread espera por um recurso que o próximo tem posse e assim em diante até fechar o ciclo. Pode ser prevenida com uma ordenação numérica em que os processos/threads adquiriem e travam os recursos de forma a evitar que o ciclo se complete, seja formado de forma fechada.
+Assim, uma forma de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">GARANTIR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>que um sistema com múltiplas threads ou processos não tenha ocorrência de deadlocks é verificar que ele não atende a pelo menos uma das condições acima.</t>
+    </r>
+  </si>
+  <si>
+    <t>Definição: é uma maneira de implementar exclusão mútua (mutex) por meio de checagens repetidas como um loop (spin) da variável lock que indica se a região crítica pode ou não ser acessada no momento pelo processo/thread que tenta. Quando uma thread quer acessar uma região protegida pelo mutex, tenta adquirir o lock e, enquanto não conseguir, continua checando. Ao conseguir adquirir o lock, acessa a região crítica e segue com a execução. Após concluir as operações na região crítica, libera o lock para que outras threads possam tentar adquirir. 
+Vantagens: Mesmo que ocasione na espera ocupada de processos/threads, pode ser eficiente em operações que fazem uso da região crítica por um curto período de tempo e pelo fato de não requererem mudança de contexto. Além disso, é uma implementação de exclusão mútua que funciona com sistemas multiprocessadores visto que todos os processadores podem checar o mesmo lock. 
+Desvantagens: As threads/processos esperando pelo lock ficam em espera ocupada, fato que desperdiça tempo e processamento da CPU principalmente em processos com muitas threads esperando pelo mesmo lock para prosseguir.</t>
+  </si>
+  <si>
+    <t>FVFF</t>
+  </si>
+  <si>
+    <t>não</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -920,13 +1090,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -986,9 +1149,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -998,8 +1158,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1115,13 +1278,17 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
   <rv s="0">
     <v>0</v>
     <v>5</v>
   </rv>
   <rv s="0">
     <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -1140,19 +1307,13 @@
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
   <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
 </richValueRels>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{602F16FD-8788-4D16-9A52-DA61EB9C7F66}" name="Tabela1" displayName="Tabela1" ref="A1:H48" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:H48" xr:uid="{602F16FD-8788-4D16-9A52-DA61EB9C7F66}">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter val="*thread*"/>
-        <customFilter val="*threads*"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H48" xr:uid="{602F16FD-8788-4D16-9A52-DA61EB9C7F66}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F5E11782-C182-4AC0-993D-7F2D51A34A39}" name="Semestre" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{0694AE4C-A66C-4807-A297-755B318D59FD}" name="N" dataDxfId="7"/>
@@ -1486,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DE9F26-DDE6-4C49-B717-D430C96A519E}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1497,7 +1658,7 @@
     <col min="3" max="3" width="16.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="42.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="86.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="13.140625" style="1"/>
@@ -1529,43 +1690,49 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -1573,61 +1740,70 @@
       <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>97</v>
+      <c r="D4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="248.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>98</v>
+        <v>101</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1640,7 +1816,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1650,20 +1826,20 @@
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>79</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="360" hidden="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1673,20 +1849,20 @@
       <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1696,7 +1872,7 @@
       <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -1709,7 +1885,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1719,7 +1895,7 @@
       <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1732,50 +1908,50 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>79</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="390" x14ac:dyDescent="0.25">
@@ -1788,17 +1964,17 @@
       <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1808,17 +1984,17 @@
       <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1828,7 +2004,7 @@
       <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -1841,7 +2017,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1851,17 +2027,17 @@
       <c r="C17" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1871,37 +2047,37 @@
       <c r="C18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="1">
         <v>3</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1911,7 +2087,7 @@
       <c r="C20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -1924,7 +2100,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1934,14 +2110,17 @@
       <c r="C21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>27</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="F21" s="1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="236.25" x14ac:dyDescent="0.25">
@@ -1954,37 +2133,40 @@
       <c r="C22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="E22" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G22" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>94</v>
+      <c r="E23" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>79</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -1994,14 +2176,14 @@
       <c r="C24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>34</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -2011,7 +2193,7 @@
       <c r="C25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -2024,7 +2206,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -2034,14 +2216,14 @@
       <c r="C26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>35</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="315" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -2051,11 +2233,14 @@
       <c r="C27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="E27" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="G27" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="63" x14ac:dyDescent="0.25">
@@ -2068,14 +2253,14 @@
       <c r="C28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>42</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
@@ -2085,14 +2270,14 @@
       <c r="C29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
@@ -2102,14 +2287,14 @@
       <c r="C30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -2119,7 +2304,7 @@
       <c r="C31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -2139,43 +2324,46 @@
       <c r="B32" s="1">
         <v>5</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>48</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>94</v>
+      <c r="E33" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>79</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>52</v>
       </c>
@@ -2185,17 +2373,20 @@
       <c r="C34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="1" t="e" vm="2">
+      <c r="E34" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
+      <c r="F34" s="1" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
       <c r="G34" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>52</v>
       </c>
@@ -2205,14 +2396,14 @@
       <c r="C35" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>55</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
@@ -2222,7 +2413,7 @@
       <c r="C36" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -2245,17 +2436,20 @@
       <c r="C37" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>56</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>60</v>
       </c>
@@ -2265,34 +2459,34 @@
       <c r="C38" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>61</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B39" s="1">
         <v>2</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>94</v>
+      <c r="E39" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>79</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
@@ -2305,7 +2499,7 @@
       <c r="C40" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -2322,14 +2516,14 @@
       <c r="C41" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>64</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>60</v>
       </c>
@@ -2339,7 +2533,7 @@
       <c r="C42" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="9" t="s">
         <v>65</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -2362,17 +2556,20 @@
       <c r="C43" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="9" t="s">
         <v>66</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="393.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="393.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -2380,14 +2577,14 @@
         <v>1</v>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="9" t="s">
         <v>69</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>68</v>
       </c>
@@ -2395,14 +2592,14 @@
         <v>2</v>
       </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="9" t="s">
         <v>70</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>68</v>
       </c>
@@ -2410,14 +2607,14 @@
         <v>3</v>
       </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="9" t="s">
         <v>71</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>68</v>
       </c>
@@ -2425,14 +2622,14 @@
         <v>4</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="9" t="s">
         <v>65</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>68</v>
       </c>
@@ -2440,7 +2637,7 @@
         <v>5</v>
       </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>72</v>
       </c>
       <c r="F48" s="1" t="s">
